--- a/moving_average/data/CDSL.xlsx
+++ b/moving_average/data/CDSL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5915,6 +5915,35 @@
         <v>1503.540909090909</v>
       </c>
     </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>189</v>
+      </c>
+      <c r="C191" s="2">
+        <v>44571</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191">
+        <v>1570</v>
+      </c>
+      <c r="F191">
+        <v>1570</v>
+      </c>
+      <c r="G191">
+        <v>1535.05</v>
+      </c>
+      <c r="H191">
+        <v>1548.7</v>
+      </c>
+      <c r="I191">
+        <v>1505.779545454546</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
